--- a/results/BTECH 2021 Batch 5th Sem.xlsx
+++ b/results/BTECH 2021 Batch 5th Sem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minnu\Downloads\CUTM4\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minnu\Documents\Projects\CUTM Result Portal\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C7F957-7FB3-40E4-809D-B4A1ADF3EB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25368267-AA25-44A7-A930-8935AEB1EB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2768,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1460"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A1073" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I1147" sqref="I1147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -36046,7 +36046,7 @@
         <v>768</v>
       </c>
       <c r="I1147" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1148" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -36104,7 +36104,7 @@
         <v>768</v>
       </c>
       <c r="I1149" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1150" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -36162,7 +36162,7 @@
         <v>768</v>
       </c>
       <c r="I1151" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1152" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -36220,7 +36220,7 @@
         <v>768</v>
       </c>
       <c r="I1153" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1154" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
